--- a/Data/Excels/Synthetic/Compare models/1/ARAP_InRays_1.xlsx
+++ b/Data/Excels/Synthetic/Compare models/1/ARAP_InRays_1.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>InRays</t>
+          <t>{'InRays'}</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
